--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T11:08:45+00:00</t>
+    <t>2024-02-07T14:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:28:15+00:00</t>
+    <t>2024-02-07T16:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:04:22+00:00</t>
+    <t>2024-02-07T17:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:31:40+00:00</t>
+    <t>2024-02-07T17:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:32:41+00:00</t>
+    <t>2024-02-08T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T09:57:00+00:00</t>
+    <t>2024-02-11T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:45:47+00:00</t>
+    <t>2024-02-12T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T12:45:21+00:00</t>
+    <t>2024-02-15T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:40:40+00:00</t>
+    <t>2024-02-16T09:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:35:34+00:00</t>
+    <t>2024-02-16T16:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:20:17+00:00</t>
+    <t>2024-02-21T15:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:13:04+00:00</t>
+    <t>2024-02-26T15:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T15:10:23+00:00</t>
+    <t>2024-02-29T09:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:27:29+00:00</t>
+    <t>2024-02-29T09:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:39:56+00:00</t>
+    <t>2024-03-12T11:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T11:10:47+00:00</t>
+    <t>2024-03-12T16:09:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:09:00+00:00</t>
+    <t>2024-03-12T16:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePsychiatricSector</t>
   </si>
   <si>
     <t/>
@@ -336,6 +339,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>utilisation</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -691,6 +697,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="92.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,6 +812,9 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -815,26 +825,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>29</v>
@@ -845,482 +855,497 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>100</v>
+      <c r="AL6" t="s" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:11:04+00:00</t>
+    <t>2024-03-12T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePsychiatricSector</t>
   </si>
   <si>
     <t/>
@@ -339,9 +336,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>utilisation</t>
   </si>
 </sst>
 </file>
@@ -652,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -697,7 +691,6 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="92.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -812,9 +805,6 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -825,26 +815,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>29</v>
@@ -855,497 +845,482 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AH3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG4" t="s" s="2">
+      <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:23:37+00:00</t>
+    <t>2024-03-12T17:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePsychiatricSector</t>
   </si>
   <si>
     <t/>
@@ -336,6 +339,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>utilisation</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -691,6 +697,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="92.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,6 +812,9 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -815,26 +825,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>29</v>
@@ -845,482 +855,497 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>100</v>
+      <c r="AL6" t="s" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:24:09+00:00</t>
+    <t>2024-03-12T17:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:37:11+00:00</t>
+    <t>2024-03-12T17:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:47:27+00:00</t>
+    <t>2024-03-12T18:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:03:49+00:00</t>
+    <t>2024-03-12T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:27:00+00:00</t>
+    <t>2024-03-12T18:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:45:19+00:00</t>
+    <t>2024-03-12T19:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:04:09+00:00</t>
+    <t>2024-03-12T19:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:33:13+00:00</t>
+    <t>2024-03-12T20:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:05:23+00:00</t>
+    <t>2024-03-12T20:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:36:46+00:00</t>
+    <t>2024-03-12T20:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:57:01+00:00</t>
+    <t>2024-03-12T21:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T21:17:35+00:00</t>
+    <t>2024-03-13T08:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T08:46:11+00:00</t>
+    <t>2024-03-13T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:02:53+00:00</t>
+    <t>2024-03-13T09:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T10:24:41+00:00</t>
+    <t>2024-03-13T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:27:50+00:00</t>
+    <t>2024-03-13T16:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:38:24+00:00</t>
+    <t>2024-03-13T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePsychiatricSector</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServicePsychiatricSector</t>
   </si>
   <si>
     <t/>
@@ -696,8 +696,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="92.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.03125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1022,10 +1022,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1236,10 +1236,10 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1342,10 +1342,10 @@
         <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
 </t>
   </si>
   <si>
-    <t>utilisation</t>
+    <t>secteurPsychiatrique</t>
   </si>
 </sst>
 </file>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,43 +661,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="92.03125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="78.90234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,43 +661,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.90234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.03125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/main/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
